--- a/EH menu  Wk 1 -8.xlsx
+++ b/EH menu  Wk 1 -8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwk97\OneDrive\Desktop\Bobby's Mealbot\eusofftelebot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C6DD1-08CB-48A8-BBEF-5315B6B481F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8E07A589-3E3A-4678-A117-75AC75A2775C}"/>
+    <workbookView minimized="1" xWindow="4560" yWindow="1810" windowWidth="14400" windowHeight="7090" activeTab="1" xr2:uid="{8E07A589-3E3A-4678-A117-75AC75A2775C}"/>
   </bookViews>
   <sheets>
     <sheet name="KRH wk1" sheetId="1" r:id="rId1"/>
@@ -1222,84 +1222,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,12 +1288,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,20 +1405,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,9 +1415,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,25 +1736,25 @@
   </sheetPr>
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D24"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="63.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1783,82 +1783,82 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="75" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1882,9 +1882,9 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1907,9 +1907,9 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1940,7 +1940,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1950,8 +1950,8 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1960,13 +1960,13 @@
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="65" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="68" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -1977,19 +1977,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
       <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13" t="s">
         <v>32</v>
       </c>
@@ -1998,19 +1998,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2019,19 +2019,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
       <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="13" t="s">
         <v>42</v>
       </c>
@@ -2040,19 +2040,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
@@ -2061,17 +2061,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="45"/>
+    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2080,17 +2080,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
@@ -2099,83 +2099,83 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="57" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="33"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="57" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33"/>
+    <row r="24" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="63"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
@@ -2199,8 +2199,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -2234,7 +2234,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2260,20 +2260,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B6:B7"/>
@@ -2284,12 +2276,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2303,25 +2303,25 @@
   </sheetPr>
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="1" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="63.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>161</v>
       </c>
@@ -2350,82 +2350,82 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="75" t="s">
         <v>79</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -2449,9 +2449,9 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2474,9 +2474,9 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2507,7 +2507,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2517,8 +2517,8 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2527,13 +2527,13 @@
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="65" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="68" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -2544,19 +2544,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
       <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13" t="s">
         <v>89</v>
       </c>
@@ -2565,19 +2565,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13" t="s">
         <v>93</v>
       </c>
@@ -2586,19 +2586,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
       <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="13" t="s">
         <v>97</v>
       </c>
@@ -2607,19 +2607,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
@@ -2628,17 +2628,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="45"/>
+    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2647,17 +2647,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>105</v>
       </c>
@@ -2666,83 +2666,83 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="57" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="33"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33"/>
+    <row r="24" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="63"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
@@ -2766,8 +2766,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -2801,7 +2801,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2827,20 +2827,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B6:B7"/>
@@ -2851,12 +2843,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2874,21 +2874,21 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="1" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="83.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="74.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="63.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="74.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
@@ -2917,82 +2917,82 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="75" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="58" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -3016,9 +3016,9 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3041,9 +3041,9 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3074,7 +3074,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -3084,8 +3084,8 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3094,13 +3094,13 @@
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="65" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="68" t="s">
         <v>119</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -3111,19 +3111,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
       <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13" t="s">
         <v>32</v>
       </c>
@@ -3132,19 +3132,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
@@ -3153,19 +3153,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
       <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="13" t="s">
         <v>42</v>
       </c>
@@ -3174,19 +3174,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="13" t="s">
         <v>128</v>
       </c>
@@ -3195,17 +3195,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="45"/>
+    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="8" t="s">
         <v>131</v>
       </c>
@@ -3214,17 +3214,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
@@ -3233,83 +3233,83 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="57" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="33"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="57" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33"/>
+    <row r="24" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="63"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
@@ -3333,8 +3333,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3368,7 +3368,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3394,20 +3394,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B6:B7"/>
@@ -3418,12 +3410,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3437,25 +3437,25 @@
   </sheetPr>
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" customWidth="1"/>
+    <col min="7" max="7" width="63.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>135</v>
       </c>
@@ -3480,86 +3480,86 @@
       <c r="H3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -3581,11 +3581,11 @@
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="76"/>
-    </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3606,11 +3606,11 @@
       <c r="H9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="76"/>
-    </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -3629,9 +3629,9 @@
       <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3640,7 +3640,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -3649,8 +3649,8 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3659,222 +3659,222 @@
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="65" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="68" t="s">
         <v>145</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
       <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13" t="s">
         <v>148</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13" t="s">
         <v>150</v>
       </c>
       <c r="H15" s="16"/>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
       <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="13" t="s">
         <v>151</v>
       </c>
       <c r="H16" s="16"/>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="1:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="16"/>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="45"/>
+    <row r="18" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="16"/>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>105</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="57" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="33"/>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="80" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33"/>
+    <row r="24" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="63"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
@@ -3894,12 +3894,12 @@
         <v>69</v>
       </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
@@ -3919,11 +3919,11 @@
         <v>71</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3932,7 +3932,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3943,7 +3943,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3956,20 +3956,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B6:B7"/>
@@ -3980,12 +3972,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4003,21 +4003,21 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="24" style="52" customWidth="1"/>
-    <col min="3" max="3" width="71" style="61" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="69.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="66.28515625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="64.5703125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="56" style="61" customWidth="1"/>
-    <col min="9" max="9" width="60" style="61" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="17.81640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24" style="26" customWidth="1"/>
+    <col min="3" max="3" width="71" style="35" customWidth="1"/>
+    <col min="4" max="4" width="70.453125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="66.26953125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="64.54296875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="56" style="35" customWidth="1"/>
+    <col min="9" max="9" width="60" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>192</v>
       </c>
@@ -4046,83 +4046,83 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="75" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+    <row r="3" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="78"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="58" t="s">
         <v>244</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+    <row r="5" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="78"/>
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4145,344 +4145,353 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="42" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="71" t="s">
+    <row r="8" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="79"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="88"/>
-    </row>
-    <row r="9" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="56" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="55" t="s">
+    <row r="11" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="63"/>
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="56" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="55" t="s">
+    <row r="12" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="55" t="s">
+    <row r="13" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="63"/>
+      <c r="B13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="84"/>
+      <c r="G13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="56" t="s">
+      <c r="H13" s="37"/>
+      <c r="I13" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="81" t="s">
+    <row r="14" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
+      <c r="B14" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="56" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="56" t="s">
+    <row r="15" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="64" t="s">
+      <c r="D15" s="84"/>
+      <c r="E15" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="64" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64" t="s">
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="58" t="s">
+    <row r="16" spans="1:9" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="57" t="s">
+      <c r="F16" s="84"/>
+      <c r="G16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="84" t="s">
+    <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="48" t="s">
+      <c r="D17" s="84"/>
+      <c r="E17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="48" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="37"/>
+      <c r="I17" s="80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="49"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="55" t="s">
+    <row r="18" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="63"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="63"/>
+      <c r="B20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="56" t="s">
+      <c r="D20" s="85"/>
+      <c r="E20" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="56" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="56" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="63"/>
+      <c r="B21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="56" t="s">
+      <c r="H21" s="37"/>
+      <c r="I21" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="55" t="s">
+    <row r="22" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="64"/>
+      <c r="B22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="56" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="65"/>
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D10:D20"/>
@@ -4499,15 +4508,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId1"/>
@@ -4525,21 +4525,21 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="61" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="18.7265625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="63.7265625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="59.7265625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="56.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.7265625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>212</v>
       </c>
@@ -4568,83 +4568,83 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="75" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+    <row r="3" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="94"/>
+      <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="92" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="94"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="94"/>
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4667,354 +4667,343 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="94"/>
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="42" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="71" t="s">
+    <row r="8" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="95"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="9" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="55"/>
+      <c r="B11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="66" t="s">
+    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="55"/>
+      <c r="B12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="67" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="66" t="s">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="55"/>
+      <c r="B13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="67" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="55"/>
+      <c r="B14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="41" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="71" t="s">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="71" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="71" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="68" t="s">
+    <row r="16" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="55"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="72" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55"/>
+      <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="34" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="66" t="s">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="55"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="55"/>
+      <c r="B20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="66" t="s">
+    <row r="21" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="55"/>
+      <c r="B21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="66" t="s">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="55"/>
+      <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67" t="s">
+      <c r="H22" s="45"/>
+      <c r="I22" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="91"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="56"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="F10:F20"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G17:G19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B3"/>
@@ -5028,6 +5017,17 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="F10:F20"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G17:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="landscape" r:id="rId1"/>
@@ -5045,21 +5045,21 @@
       <selection activeCell="D11" sqref="D11:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="48" style="61" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="61" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" style="61" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="16.7265625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="49.7265625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="48" style="35" customWidth="1"/>
+    <col min="6" max="6" width="40.1796875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="44.7265625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" style="35" customWidth="1"/>
+    <col min="9" max="9" width="38.81640625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>226</v>
       </c>
@@ -5088,83 +5088,83 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="75" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+    <row r="3" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="94"/>
+      <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="92" t="s">
         <v>117</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="94"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="94"/>
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5187,354 +5187,343 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="94"/>
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="42" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="71" t="s">
+    <row r="8" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="95"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="55"/>
+      <c r="B11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="66" t="s">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="55"/>
+      <c r="B12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="67" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="66" t="s">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="55"/>
+      <c r="B13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="67" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:9" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="55"/>
+      <c r="B14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="67" t="s">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="71" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="71" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="68" t="s">
+    <row r="16" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="55"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="72" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55"/>
+      <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="34" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="66" t="s">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="55"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="55"/>
+      <c r="B20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="66" t="s">
+    <row r="21" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="55"/>
+      <c r="B21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="66" t="s">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="55"/>
+      <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67" t="s">
+      <c r="H22" s="45"/>
+      <c r="I22" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="91"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="56"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="F10:F20"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G17:G19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B3"/>
@@ -5548,6 +5537,17 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="F10:F20"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G17:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
@@ -5565,21 +5565,21 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="24" style="52" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="61" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="15.453125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24" style="26" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="44.81640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="38.54296875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="37.7265625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>242</v>
       </c>
@@ -5604,87 +5604,87 @@
       <c r="H1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="44" t="s">
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="78"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="75" t="s">
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="78"/>
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5705,343 +5705,331 @@
       <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28" t="s">
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="71" t="s">
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="79"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="77"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="63"/>
+      <c r="B11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="46" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="66" t="s">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="67" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="66" t="s">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="63"/>
+      <c r="B13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="67" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="63"/>
+      <c r="B14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="41" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="67" t="s">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="71" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="71" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="68" t="s">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="63"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="67" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="30" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="95"/>
-    </row>
-    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="66" t="s">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="63"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="92"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="63"/>
+      <c r="B20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="66" t="s">
+    <row r="21" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="63"/>
+      <c r="B21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="66" t="s">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="64"/>
+      <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67" t="s">
+      <c r="H22" s="45"/>
+      <c r="I22" s="41" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="F10:F20"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G17:G19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B3"/>
@@ -6055,6 +6043,18 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="F10:F20"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G17:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
